--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_scalesfate_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_scalesfate_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D8BDE-0BC4-452A-88AE-372245F6C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF255B-DB0A-4152-90FD-1DBC08B7F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -1335,35 +1335,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="21"/>
       <c r="D11" s="30"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
       <c r="D12" s="30"/>
@@ -1506,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="22"/>
       <c r="D13" s="27"/>
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>50</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" s="22"/>
       <c r="D15" s="27"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>95</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="27"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>87</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="22"/>
       <c r="D19" s="27"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>114</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
       <c r="C21" s="21"/>
       <c r="D21" s="19"/>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
       <c r="C22" s="21"/>
       <c r="D22" s="19"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
       <c r="C23" s="21"/>
       <c r="D23" s="19"/>
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
       <c r="C24" s="21"/>
       <c r="D24" s="19"/>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
       <c r="C25" s="21"/>
       <c r="D25" s="19"/>
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
       <c r="C26" s="21"/>
       <c r="D26" s="19"/>
@@ -1748,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="24"/>
       <c r="C27" s="21"/>
       <c r="D27" s="19"/>
@@ -1765,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
       <c r="C28" s="21"/>
       <c r="D28" s="19"/>
@@ -1782,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
       <c r="C29" s="21"/>
       <c r="D29" s="19"/>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="48.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
       <c r="C30" s="21"/>
       <c r="D30" s="19"/>
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="22"/>
       <c r="D31" s="19"/>
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>115</v>
       </c>
@@ -1894,35 +1894,35 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>25016</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>25018</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>25019</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>25020</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>25021</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>25022</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>25023</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>25024</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>25025</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>25026</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>25027</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>25028</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>25029</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>25030</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>25031</v>
       </c>
@@ -2158,31 +2158,31 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.796875" style="16" customWidth="1"/>
-    <col min="4" max="5" width="16.19921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.75" style="16" customWidth="1"/>
+    <col min="4" max="5" width="16.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.8984375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="15" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.8984375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="15" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>25000</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>25001</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>25002</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>25003</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>25004</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>25005</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>25006</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>25007</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>25008</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>25009</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>25010</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>25011</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>25012</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>25013</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>25014</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>25015</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>25016</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>25017</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>25018</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>25019</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>25020</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>25021</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>25022</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>25023</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25024</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>25025</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>25026</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>25027</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>25028</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>25029</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>25030</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>25031</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>25032</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>25033</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>25034</v>
       </c>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_scalesfate_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_scalesfate_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF255B-DB0A-4152-90FD-1DBC08B7F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A531C05-9EE8-4C90-810E-CB4AC62FB2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
   <si>
     <t>column</t>
   </si>
@@ -333,9 +333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에스더&amp;연합군 스킬 활성화 및 사용 가능 (파티 당 1인만 가능)</t>
-  </si>
-  <si>
     <t>아군과 가까워지면 10초마다 ‘힘의 구슬’ 생성</t>
   </si>
   <si>
@@ -601,16 +598,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에스더&amp;연합군 스킬 활성화 처리
-파티 당 1인만 선택 가능하도록 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$0초 후 공격력 50%, 공격 속도, 이동 속도 30% 증가시켜주는 ‘전력질주’ 버프로 변경되며 15초간 지속 후 소멸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에스더&amp;연합군 스킬 사용 시 발동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -721,14 +709,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>효과 범위 8m, 효과 범위는 이펙트로 상시 표기
-아군과 가까워지면 2초마다 실드 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>효과 범위 5m, 효과 범위는 이펙트로 상시 표기
 아군과 가까워지면 10초마다 힘의 구슬 생성
 구슬 획득 시 {derivative_id}값의 효과를 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리더의 자질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 발동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 모든 파티원에게 공격력을 15% 증가시켜주는 ‘고무’ 버프를 10초간 부여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 모든 파티원에게 10초간 최대 생명력 50% 실드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 에스더&amp;연합군 스킬 게이지 $1% 회복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">실드 생성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 최대 생명력 비례</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군과 가까워지면 2초마다 본인에게 2초간 최대 생명력 $1% 실드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 모든 파티원에게 10초간 최대 생명력 $1% 실드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연대감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 $1% 실드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 범위 8m, 효과 범위는 이펙트로 상시 표기
+아군과 가까워지면 2초마다 {derivative_id}값의 효과를 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스더&amp;연합군 스킬이 사용 되면 {derivative_id}값의 효과를 획득</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +855,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -897,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,8 +1020,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,19 +1038,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,8 +1056,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1482,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>9</v>
@@ -1437,7 +1505,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -1456,33 +1524,33 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="10">
         <v>1</v>
       </c>
@@ -1492,10 +1560,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="10">
         <v>2</v>
       </c>
@@ -1507,8 +1575,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="10">
@@ -1522,16 +1590,16 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="10">
@@ -1540,13 +1608,13 @@
       <c r="G14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="10">
@@ -1558,31 +1626,31 @@
       <c r="H15" s="27"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="10" t="s">
@@ -1594,31 +1662,31 @@
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="10" t="s">
@@ -1630,13 +1698,13 @@
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1646,14 +1714,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
@@ -1666,14 +1734,14 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1681,14 +1749,14 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>19</v>
@@ -1698,14 +1766,14 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>20</v>
@@ -1715,14 +1783,14 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>22</v>
@@ -1732,14 +1800,14 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>23</v>
@@ -1749,14 +1817,14 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>21</v>
@@ -1766,14 +1834,14 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>44</v>
@@ -1783,9 +1851,9 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="10" t="s">
         <v>32</v>
       </c>
@@ -1800,9 +1868,9 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
@@ -1817,9 +1885,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
         <v>32</v>
       </c>
@@ -1829,41 +1897,58 @@
       <c r="G31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D20:D32"/>
+    <mergeCell ref="C20:C32"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -1872,14 +1957,12 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FAB588-7F58-4B9E-B129-A187C4ED8561}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1919,7 +2002,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -1927,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1944,10 +2027,10 @@
         <v>67</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1961,7 +2044,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1972,10 +2055,10 @@
         <v>70</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1983,13 +2066,13 @@
         <v>25020</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -1997,16 +2080,16 @@
         <v>25021</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>25022</v>
       </c>
@@ -2014,13 +2097,13 @@
         <v>72</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>25023</v>
       </c>
@@ -2028,10 +2111,10 @@
         <v>73</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -2042,10 +2125,10 @@
         <v>74</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -2056,10 +2139,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -2070,10 +2153,10 @@
         <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -2081,13 +2164,13 @@
         <v>25027</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -2098,10 +2181,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -2112,10 +2195,10 @@
         <v>78</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -2123,13 +2206,13 @@
         <v>25030</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -2137,13 +2220,13 @@
         <v>25031</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2154,11 +2237,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C551830-8B4F-4C11-A56D-3A479918A2A5}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2199,40 +2282,40 @@
         <v>50</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="N1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,7 +2326,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -2258,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6">
         <v>10</v>
@@ -2296,7 +2379,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -2311,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="6">
         <v>10</v>
@@ -2349,7 +2432,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -2364,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="6">
         <v>10</v>
@@ -2402,7 +2485,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -2417,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="6">
         <v>-10</v>
@@ -2455,7 +2538,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -2470,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6">
         <v>10</v>
@@ -2508,7 +2591,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -2523,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="6">
         <v>5</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="6">
         <v>5</v>
@@ -2561,7 +2644,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2576,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="6">
         <v>10</v>
@@ -2614,7 +2697,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2667,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -2720,7 +2803,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -2773,7 +2856,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2826,7 +2909,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2879,7 +2962,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -2932,7 +3015,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -3091,7 +3174,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -3250,7 +3333,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -3302,8 +3385,8 @@
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>83</v>
+      <c r="C22" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -3312,16 +3395,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="6">
-        <v>0</v>
+        <v>25032</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
@@ -3353,10 +3436,10 @@
         <v>25021</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="D23" s="6">
         <v>3</v>
@@ -3365,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>25032</v>
+        <v>25033</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -3409,7 +3492,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="6">
         <v>3</v>
@@ -3461,8 +3544,8 @@
       <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>147</v>
+      <c r="C25" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="D25" s="6">
         <v>3</v>
@@ -3471,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>25034</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -3515,7 +3598,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="6">
         <v>3</v>
@@ -3524,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>25033</v>
+        <v>25035</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -3568,7 +3651,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="6">
         <v>3</v>
@@ -3621,7 +3704,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="6">
         <v>3</v>
@@ -3671,10 +3754,10 @@
         <v>25027</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
@@ -3683,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>25034</v>
+        <v>25036</v>
       </c>
       <c r="G29" s="6">
         <v>300</v>
@@ -3727,7 +3810,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6">
         <v>3</v>
@@ -3780,7 +3863,7 @@
         <v>78</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
@@ -3830,10 +3913,10 @@
         <v>25030</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -3883,10 +3966,10 @@
         <v>25031</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -3936,10 +4019,10 @@
         <v>25032</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -3954,10 +4037,10 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="I34" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J34" s="6">
         <v>0</v>
@@ -3989,10 +4072,10 @@
         <v>25033</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
@@ -4010,7 +4093,7 @@
         <v>35</v>
       </c>
       <c r="I35" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
@@ -4042,10 +4125,10 @@
         <v>25034</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -4057,36 +4140,142 @@
         <v>0</v>
       </c>
       <c r="G36" s="6">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>25035</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="6">
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>25036</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
         <v>15</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I38" s="6">
         <v>50</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K38" s="6">
         <v>30</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M38" s="6">
         <v>30</v>
       </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4099,9 +4288,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63457B2E-5B7C-4D65-A66D-C6D5173D87F7}">
           <x14:formula1>
-            <xm:f>info!$F$20:$F$31</xm:f>
+            <xm:f>info!$F$20:$F$32</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L2 K20 I20 I18 K18 N1:N2 M31:M35 K31:K35 M16:M20 M13 K9:K11 Q8:Q20 O8:O20 M8:M11 P1:P2 I22:I23 I26:Q26 J1:J25 L7:L25 P7:P25 N7:N25 K22:K25 M22:M25 O22:O25 Q22:Q25 J27:Q30 N31:N1048576 O31:O36 Q31:Q36 H1:H1048576 J31:J1048576 L31:L1048576 P31:P1048576</xm:sqref>
+          <xm:sqref>N1:N1048576 L1:L1048576 J1:J1048576 H1:H1048576 P1:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
